--- a/src/QuickApp/Patrols.xlsx
+++ b/src/QuickApp/Patrols.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Green  color on right screen available and ready to take task</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Breaks</t>
+  </si>
+  <si>
+    <t>Short break-15 mins</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="P1:X49"/>
+  <dimension ref="P1:X50"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B25" workbookViewId="0">
       <selection activeCell="X50" sqref="X50"/>
@@ -792,6 +795,11 @@
     <row r="49" spans="24:24" x14ac:dyDescent="0.25">
       <c r="X49" s="4" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X50" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/QuickApp/Patrols.xlsx
+++ b/src/QuickApp/Patrols.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Green  color on right screen available and ready to take task</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>Short break-15 mins</t>
+  </si>
+  <si>
+    <t>If exceeded time</t>
+  </si>
+  <si>
+    <t>LAND</t>
+  </si>
+  <si>
+    <t>BAHAT(Back)</t>
+  </si>
+  <si>
+    <t>Long Breaks-1 hour</t>
+  </si>
+  <si>
+    <t>AWAY</t>
   </si>
 </sst>
 </file>
@@ -264,12 +279,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -575,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="P1:X50"/>
+  <dimension ref="P1:X55"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="X50" sqref="X50"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,14 +808,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="23:24" x14ac:dyDescent="0.25">
       <c r="X49" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W50" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="X50" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W54" t="s">
+        <v>44</v>
+      </c>
+      <c r="X54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W55" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/QuickApp/Patrols.xlsx
+++ b/src/QuickApp/Patrols.xlsx
@@ -594,7 +594,7 @@
   <dimension ref="P1:X55"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="W54" sqref="W54"/>
+      <selection activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/QuickApp/Patrols.xlsx
+++ b/src/QuickApp/Patrols.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Green  color on right screen available and ready to take task</t>
   </si>
@@ -160,6 +160,21 @@
   </si>
   <si>
     <t>AWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on a mission </t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>Mno from HR</t>
+  </si>
+  <si>
+    <t>Caller id :Organisation || Sector || Responsibilty</t>
   </si>
 </sst>
 </file>
@@ -296,12 +311,570 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>3505200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9973217925" y="11677649"/>
+          <a:ext cx="1409700" cy="819151"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Employee</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9976104000" y="11658600"/>
+          <a:ext cx="1409700" cy="819151"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Patrol Car</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>,Handheld</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9979656825" y="11715750"/>
+          <a:ext cx="1409700" cy="819151"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Ahwal Mapping</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9977837550" y="13277850"/>
+          <a:ext cx="1409700" cy="819151"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Operations</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Right Arrow 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9974751450" y="11982450"/>
+          <a:ext cx="1095375" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Right Arrow 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9978151875" y="12030075"/>
+          <a:ext cx="1095375" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35433</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>59817</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Left-Up Arrow 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9979618725" y="12963525"/>
+          <a:ext cx="850392" cy="850392"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982142850" y="12039600"/>
+          <a:ext cx="1409700" cy="819151"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Ahwal Mapping</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9981209400" y="12039600"/>
+          <a:ext cx="885825" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9980676000" y="12849225"/>
+          <a:ext cx="1628775" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="P1:X55"/>
+  <dimension ref="P1:X60"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="W55" sqref="W55"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,6 +1341,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="40" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="X40" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="41" spans="23:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="23:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W42" s="3" t="s">
@@ -822,7 +1400,7 @@
       </c>
     </row>
     <row r="51" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W51" t="s">
+      <c r="W51" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -832,7 +1410,7 @@
       </c>
     </row>
     <row r="54" spans="23:24" x14ac:dyDescent="0.25">
-      <c r="W54" t="s">
+      <c r="W54" s="1" t="s">
         <v>44</v>
       </c>
       <c r="X54" t="s">
@@ -844,8 +1422,28 @@
         <v>45</v>
       </c>
     </row>
+    <row r="57" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="X60" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/QuickApp/Patrols.xlsx
+++ b/src/QuickApp/Patrols.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
-    <sheet name="ورقة2" sheetId="2" r:id="rId2"/>
-    <sheet name="ورقة3" sheetId="3" r:id="rId3"/>
+    <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
+    <sheet name="StatesRolesSectorsShifts" sheetId="2" r:id="rId2"/>
+    <sheet name="Dispatcher" sheetId="3" r:id="rId3"/>
+    <sheet name="Operations" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="165">
   <si>
     <t>Green  color on right screen available and ready to take task</t>
   </si>
@@ -165,9 +166,6 @@
     <t xml:space="preserve">on a mission </t>
   </si>
   <si>
-    <t>sea</t>
-  </si>
-  <si>
     <t>idle</t>
   </si>
   <si>
@@ -175,13 +173,438 @@
   </si>
   <si>
     <t>Caller id :Organisation || Sector || Responsibilty</t>
+  </si>
+  <si>
+    <t>States-Persons</t>
+  </si>
+  <si>
+    <t>SunRise</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>BackFromWalking</t>
+  </si>
+  <si>
+    <t>SunSet</t>
+  </si>
+  <si>
+    <t>Away</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>WalkingPatrol</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Sick</t>
+  </si>
+  <si>
+    <t>Patrol Roles</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>CaptainAllSectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CaptainShift </t>
+  </si>
+  <si>
+    <t>CaptainSector</t>
+  </si>
+  <si>
+    <t>SubCaptainSector</t>
+  </si>
+  <si>
+    <t>CityGroupOfficer</t>
+  </si>
+  <si>
+    <t>PatrolPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp </t>
+  </si>
+  <si>
+    <t>Shifts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morning </t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>Sectors</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fourth </t>
+  </si>
+  <si>
+    <t>Fifth</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>BAHAT(SEA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              Adding Person to Dispatcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person </t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>shifts</t>
+  </si>
+  <si>
+    <t>Associate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    On popup screen (Fields below)</t>
+  </si>
+  <si>
+    <t>On Submit</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Validate for all scenarios person is entered ,role is entered Mandatory</t>
+  </si>
+  <si>
+    <t>Scenario's</t>
+  </si>
+  <si>
+    <t>Check Shift is selected else show msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">then give following object to database </t>
+  </si>
+  <si>
+    <t>obj.ahwalid=selperson.ahwalid</t>
+  </si>
+  <si>
+    <r>
+      <t>1.if roleselected ==</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Roles.CaptainAllSectors</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Roles.CaptainShift </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>obj.sectorid=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sectors.public</t>
+    </r>
+  </si>
+  <si>
+    <t>obj.cityid=get first city from table citygroups for the ahwalid</t>
+  </si>
+  <si>
+    <t>obj.shiftid=selectshift</t>
+  </si>
+  <si>
+    <t>obj.patrolid=selected role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if transaction == update </t>
+  </si>
+  <si>
+    <t>obj.ahwalmapid = request.form("ahwalmapid")</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>insert new record to AhwalMappings table</t>
+  </si>
+  <si>
+    <r>
+      <t>2.if roleselected ==</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Roles.CaptainSector or Roles.SubCaptainSector</t>
+    </r>
+  </si>
+  <si>
+    <t>same as above</t>
+  </si>
+  <si>
+    <t>Associate (Associate is another person with patrooling guy)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.if roleselected == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Roles.Associate (Associate is another person with patrooling guy)</t>
+    </r>
+  </si>
+  <si>
+    <t>check patrooling guy is selected as master record from the selected row</t>
+  </si>
+  <si>
+    <t>all are other values of patrolling guy</t>
+  </si>
+  <si>
+    <t>obj.associatepersonid=patrollingguy.personid</t>
+  </si>
+  <si>
+    <t>obj.personid=selected person.id</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.else</t>
+    </r>
+  </si>
+  <si>
+    <t>shift ,sector,city, is mandatory to enter</t>
+  </si>
+  <si>
+    <t>rest same as step 1</t>
+  </si>
+  <si>
+    <t>On Popup shown things to hide</t>
+  </si>
+  <si>
+    <t>if roleselected == Roles.CaptainAllSectors or Roles.CaptainShift then hide sector,city,associate</t>
+  </si>
+  <si>
+    <t>if roleselected == Roles.CaptainSector or Roles.SubCaptainSector then hide city,associate</t>
+  </si>
+  <si>
+    <t>if roleselected == Roles.Associate (Associate is another person with patrooling guy) then hide sector,city,shift</t>
+  </si>
+  <si>
+    <t>On Row Select (if checkin/checkout selected)</t>
+  </si>
+  <si>
+    <t>if person has device that means check out then</t>
+  </si>
+  <si>
+    <t>if person.hasdevice then</t>
+  </si>
+  <si>
+    <t>if selrow.patrolcarid is not equal to submit patrolcarid then show error saying not same device returned.</t>
+  </si>
+  <si>
+    <t>if selrow.handheld is not equal to submit handheld id then show error saying not same device returned.</t>
+  </si>
+  <si>
+    <t>check for row personid,patrolcarid,handhelidid,personahwalid are they nullthen else show error msgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else checkin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if selectrow.patrolcar is used by someone else show msg </t>
+  </si>
+  <si>
+    <t>if selctrow.handhelid is used by someone else show msg</t>
+  </si>
+  <si>
+    <t>if patrolcar returned is defective show msg</t>
+  </si>
+  <si>
+    <t>Row Colors for Grid</t>
+  </si>
+  <si>
+    <t>if personstate = Sunrise or sea or back or backfromwalking then light green</t>
+  </si>
+  <si>
+    <t>if land then lightgrey</t>
+  </si>
+  <si>
+    <t>if away then yellow</t>
+  </si>
+  <si>
+    <t>if sick or absent or OFF then VoiledRed</t>
+  </si>
+  <si>
+    <t>if walkingpatrol then cadetblue</t>
+  </si>
+  <si>
+    <t>Right Grid(Ahwalmappong grid)</t>
+  </si>
+  <si>
+    <t>Row Colors</t>
+  </si>
+  <si>
+    <t>By default  rowcolor=white,forecolor=black,bold=true</t>
+  </si>
+  <si>
+    <t>if perstate=sunrise,sea,back,backfromwaliking then lightgreen</t>
+  </si>
+  <si>
+    <t>if land then light grey</t>
+  </si>
+  <si>
+    <t>if away then yelllow</t>
+  </si>
+  <si>
+    <t>if sick,absent,OFF then palevoiletred</t>
+  </si>
+  <si>
+    <t>if patrole == Associate then sandybrown</t>
+  </si>
+  <si>
+    <t>if incident !=null then rowcolor=red bold=true forecolor=white</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>if land and time &gt;1hr then rowforecolor=voiletred bold=true</t>
+  </si>
+  <si>
+    <t>if away and time &gt;10 minutes the row.forecolor=palevoiletred,font = bold</t>
+  </si>
+  <si>
+    <t>Buttons to show on grid</t>
+  </si>
+  <si>
+    <t>if button ==Away or land or walking patrol check personstae =sunriseorseaorback or backfrom walking then visible = true else false</t>
+  </si>
+  <si>
+    <t>if button = BackFromAway check state = away</t>
+  </si>
+  <si>
+    <t>if button = land check state = land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if button =backfromwalking check state = backfromwalking </t>
+  </si>
+  <si>
+    <t>Buttons used in operations(these buttons come in grid as well as device popups when they talk)</t>
+  </si>
+  <si>
+    <t>BackFromLand --change stae to SEA</t>
+  </si>
+  <si>
+    <t>BackFromAway--Change stae to BACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking Patrol </t>
+  </si>
+  <si>
+    <t>1.Associate follows the same state and task as the patrolling guy patner</t>
+  </si>
+  <si>
+    <t>2.when the person is walikng the is walkingpatrol state u cannot assign any incident</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +642,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +704,56 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -287,26 +796,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="13"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="14">
+    <cellStyle name="20% - Accent5" xfId="12" builtinId="46"/>
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="9" builtinId="35"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="13" builtinId="51"/>
+    <cellStyle name="Accent1" xfId="6" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="8" builtinId="33"/>
+    <cellStyle name="Accent5" xfId="11" builtinId="45"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -773,7 +1313,7 @@
           <a:pPr algn="r" rtl="1"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Ahwal Mapping</a:t>
+            <a:t>Maps</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1164,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="P1:X60"/>
+  <dimension ref="Q1:X108"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1883,7 @@
     </row>
     <row r="40" spans="23:24" x14ac:dyDescent="0.25">
       <c r="X40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="23:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1419,12 +1959,12 @@
     </row>
     <row r="55" spans="23:24" x14ac:dyDescent="0.25">
       <c r="W55" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="23:24" x14ac:dyDescent="0.25">
       <c r="W57" s="1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="X57" t="s">
         <v>48</v>
@@ -1432,13 +1972,25 @@
     </row>
     <row r="58" spans="23:24" x14ac:dyDescent="0.25">
       <c r="W58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="23:24" x14ac:dyDescent="0.25">
       <c r="X60" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X78" s="1"/>
+    </row>
+    <row r="91" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X91" s="1"/>
+    </row>
+    <row r="102" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X102" s="1"/>
+    </row>
+    <row r="108" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X108" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1449,24 +2001,647 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="68.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="216" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="122.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/QuickApp/Patrols.xlsx
+++ b/src/QuickApp/Patrols.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="166">
   <si>
     <t>Green  color on right screen available and ready to take task</t>
   </si>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t>2.when the person is walikng the is walkingpatrol state u cannot assign any incident</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Q1:X108"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
@@ -2001,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,6 +2193,11 @@
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
